--- a/biology/Mycologie/Phlebia_radiata/Phlebia_radiata.xlsx
+++ b/biology/Mycologie/Phlebia_radiata/Phlebia_radiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlébie rayonnante, Phlébie morcelée, Mérule radiée
 Phlebia radiata, la Phlébie rayonnante, Phlébie morcelée ou encore Mérule radiée, est une espèce de champignons saprophytes résupinés, non comestibles, du genre Phlebia dans la famille des Meruliaceae.
@@ -512,7 +524,9 @@
           <t>Nom binominal accepté</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlebia radiata Fr. 1821
 </t>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Auricularia aurantiaca Sowerby 1800
  Hydnum carneum (Fr.) Fr.. 1821
@@ -589,7 +605,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : résupiné, gibbeux, 1-10 cm ou plus de largeur ; contour irrégulier ; jusqu'à environ 3 mm d'épaisseur ; surface ridée dans laquelle rayonnent les rides vers l'extérieur, plus ou moins à partir d'un point central. Il ne développe pas de pores et ne présente pas une structure en chapeau.
 Marge : frangée, peut parfois se développer un peu repliée, bord poilu. Tendance à blanchir avec l'âge.
@@ -623,7 +641,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Se répand sur le bois mort de feuillus et de conifères dans l'hémisphère nord où il est largement distribué. Saprophyte, il se développe sur les souches de feuillus morts (en particulier le hêtre) ou parfois de conifères; annuel, il provoque une pourriture blanche.
 </t>
@@ -654,7 +674,9 @@
           <t>Saisons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Toute l'année.
 </t>
@@ -685,7 +707,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Non comestible.
 </t>
